--- a/Code/Results/Cases/Case_0_213/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_213/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000711186129307</v>
+        <v>1.028772881466093</v>
       </c>
       <c r="D2">
-        <v>1.01469666851158</v>
+        <v>1.036835762705145</v>
       </c>
       <c r="E2">
-        <v>1.007107880602256</v>
+        <v>1.028699403059596</v>
       </c>
       <c r="F2">
-        <v>1.021325103118606</v>
+        <v>1.045671437307821</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048800722910316</v>
+        <v>1.034203299525416</v>
       </c>
       <c r="J2">
-        <v>1.02287064652909</v>
+        <v>1.033923342961585</v>
       </c>
       <c r="K2">
-        <v>1.025954983105183</v>
+        <v>1.039628367451097</v>
       </c>
       <c r="L2">
-        <v>1.018469071630531</v>
+        <v>1.03151546011113</v>
       </c>
       <c r="M2">
-        <v>1.032495129475516</v>
+        <v>1.048439022621327</v>
       </c>
       <c r="N2">
-        <v>1.011613731067264</v>
+        <v>1.015328318491058</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004784799029909</v>
+        <v>1.029630425090795</v>
       </c>
       <c r="D3">
-        <v>1.018106706010509</v>
+        <v>1.037601584458905</v>
       </c>
       <c r="E3">
-        <v>1.010322416314434</v>
+        <v>1.029424753498311</v>
       </c>
       <c r="F3">
-        <v>1.025177042875233</v>
+        <v>1.046539170838426</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049825948110812</v>
+        <v>1.034328516200894</v>
       </c>
       <c r="J3">
-        <v>1.025145870068853</v>
+        <v>1.034422108262103</v>
       </c>
       <c r="K3">
-        <v>1.028513033722617</v>
+        <v>1.040203989008678</v>
       </c>
       <c r="L3">
-        <v>1.020824901857574</v>
+        <v>1.032049023799471</v>
       </c>
       <c r="M3">
-        <v>1.035497603032846</v>
+        <v>1.049118097408869</v>
       </c>
       <c r="N3">
-        <v>1.012368143439504</v>
+        <v>1.015493305005049</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007368546596318</v>
+        <v>1.030185572535411</v>
       </c>
       <c r="D4">
-        <v>1.020274451168051</v>
+        <v>1.038097651324499</v>
       </c>
       <c r="E4">
-        <v>1.012367162367381</v>
+        <v>1.029894726611969</v>
       </c>
       <c r="F4">
-        <v>1.027624792619739</v>
+        <v>1.047101193420632</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050460583664308</v>
+        <v>1.034407630309353</v>
       </c>
       <c r="J4">
-        <v>1.026585624036526</v>
+        <v>1.034744460519251</v>
       </c>
       <c r="K4">
-        <v>1.030134187789388</v>
+        <v>1.040576322825897</v>
       </c>
       <c r="L4">
-        <v>1.022318583348773</v>
+        <v>1.032394229605615</v>
       </c>
       <c r="M4">
-        <v>1.03740086225544</v>
+        <v>1.049557404743089</v>
       </c>
       <c r="N4">
-        <v>1.012845511605228</v>
+        <v>1.015599920067272</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008442661597709</v>
+        <v>1.030419017112085</v>
       </c>
       <c r="D5">
-        <v>1.021176761497922</v>
+        <v>1.038306322718284</v>
       </c>
       <c r="E5">
-        <v>1.013218577325362</v>
+        <v>1.03009245069078</v>
       </c>
       <c r="F5">
-        <v>1.028643442585551</v>
+        <v>1.047337595365715</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050720609790127</v>
+        <v>1.034440431855096</v>
       </c>
       <c r="J5">
-        <v>1.027183324083328</v>
+        <v>1.034879884618082</v>
       </c>
       <c r="K5">
-        <v>1.030807781329812</v>
+        <v>1.040732818988229</v>
       </c>
       <c r="L5">
-        <v>1.022939374389303</v>
+        <v>1.03253934186963</v>
       </c>
       <c r="M5">
-        <v>1.038191781883248</v>
+        <v>1.049742064110021</v>
       </c>
       <c r="N5">
-        <v>1.013043679819485</v>
+        <v>1.015644706538097</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008622312210715</v>
+        <v>1.030458216993015</v>
       </c>
       <c r="D6">
-        <v>1.021327742767457</v>
+        <v>1.038341366835563</v>
       </c>
       <c r="E6">
-        <v>1.013361060025779</v>
+        <v>1.030125658025586</v>
       </c>
       <c r="F6">
-        <v>1.028813878521707</v>
+        <v>1.047377295723976</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050763875116325</v>
+        <v>1.034445912493895</v>
       </c>
       <c r="J6">
-        <v>1.027283242147413</v>
+        <v>1.0349026174416</v>
       </c>
       <c r="K6">
-        <v>1.030920421224049</v>
+        <v>1.04075909340759</v>
       </c>
       <c r="L6">
-        <v>1.023043194050247</v>
+        <v>1.032563706099323</v>
       </c>
       <c r="M6">
-        <v>1.038324047881709</v>
+        <v>1.049773067691308</v>
       </c>
       <c r="N6">
-        <v>1.013076807351441</v>
+        <v>1.015652224347393</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007382945980919</v>
+        <v>1.03018869159708</v>
       </c>
       <c r="D7">
-        <v>1.020286542930616</v>
+        <v>1.038100439113386</v>
       </c>
       <c r="E7">
-        <v>1.01237857089985</v>
+        <v>1.02989736803387</v>
       </c>
       <c r="F7">
-        <v>1.027638444257864</v>
+        <v>1.047104351735753</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050464084624808</v>
+        <v>1.034408070406076</v>
       </c>
       <c r="J7">
-        <v>1.026593640029376</v>
+        <v>1.034746270428905</v>
       </c>
       <c r="K7">
-        <v>1.03014321929414</v>
+        <v>1.040578414066632</v>
       </c>
       <c r="L7">
-        <v>1.022326906239617</v>
+        <v>1.032396168652649</v>
       </c>
       <c r="M7">
-        <v>1.037411466422137</v>
+        <v>1.049559872272588</v>
       </c>
       <c r="N7">
-        <v>1.012848169345883</v>
+        <v>1.015600518642419</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002098923620932</v>
+        <v>1.029062637739656</v>
       </c>
       <c r="D8">
-        <v>1.015857304352962</v>
+        <v>1.037094465169329</v>
       </c>
       <c r="E8">
-        <v>1.008201704606989</v>
+        <v>1.028944408623588</v>
       </c>
       <c r="F8">
-        <v>1.022636339756234</v>
+        <v>1.045964578792618</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049153223687287</v>
+        <v>1.034246011913771</v>
       </c>
       <c r="J8">
-        <v>1.02364641527096</v>
+        <v>1.0340919814081</v>
       </c>
       <c r="K8">
-        <v>1.026826678472151</v>
+        <v>1.039822927896171</v>
       </c>
       <c r="L8">
-        <v>1.019271712981042</v>
+        <v>1.0316957890878</v>
       </c>
       <c r="M8">
-        <v>1.033518174706416</v>
+        <v>1.048668538744202</v>
       </c>
       <c r="N8">
-        <v>1.011870961966292</v>
+        <v>1.015384105640024</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9923697684508057</v>
+        <v>1.027080439735431</v>
       </c>
       <c r="D9">
-        <v>1.007742510765758</v>
+        <v>1.035325939233844</v>
       </c>
       <c r="E9">
-        <v>1.000559659362248</v>
+        <v>1.027270019348355</v>
       </c>
       <c r="F9">
-        <v>1.013464410986093</v>
+        <v>1.04396037811709</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046617902521753</v>
+        <v>1.033945859395591</v>
       </c>
       <c r="J9">
-        <v>1.018194877276341</v>
+        <v>1.032936169325651</v>
       </c>
       <c r="K9">
-        <v>1.020711207807944</v>
+        <v>1.038490717453439</v>
       </c>
       <c r="L9">
-        <v>1.013643663004996</v>
+        <v>1.030461340934706</v>
       </c>
       <c r="M9">
-        <v>1.026342750369173</v>
+        <v>1.047097204926372</v>
       </c>
       <c r="N9">
-        <v>1.010063298401965</v>
+        <v>1.015001688545435</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9855750531095167</v>
+        <v>1.025760442870182</v>
       </c>
       <c r="D10">
-        <v>1.002105208618551</v>
+        <v>1.034149801503407</v>
       </c>
       <c r="E10">
-        <v>0.9952581580067286</v>
+        <v>1.02615712131582</v>
       </c>
       <c r="F10">
-        <v>1.007087028187747</v>
+        <v>1.042627194345744</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044768390237873</v>
+        <v>1.033736004294918</v>
       </c>
       <c r="J10">
-        <v>1.014372912745249</v>
+        <v>1.032163772787347</v>
       </c>
       <c r="K10">
-        <v>1.016436556621089</v>
+        <v>1.037602023669715</v>
       </c>
       <c r="L10">
-        <v>1.009713558944874</v>
+        <v>1.029638259929203</v>
       </c>
       <c r="M10">
-        <v>1.02132949235961</v>
+        <v>1.046049280647255</v>
       </c>
       <c r="N10">
-        <v>1.008796005857679</v>
+        <v>1.014746050945808</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9825530451771703</v>
+        <v>1.025189236264238</v>
       </c>
       <c r="D11">
-        <v>0.9996056837341982</v>
+        <v>1.033641225573495</v>
       </c>
       <c r="E11">
-        <v>0.9929093635174058</v>
+        <v>1.02567604301224</v>
       </c>
       <c r="F11">
-        <v>1.004257876374294</v>
+        <v>1.042050633616547</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043927876433362</v>
+        <v>1.03364283223122</v>
       </c>
       <c r="J11">
-        <v>1.012670091462482</v>
+        <v>1.031828892238135</v>
       </c>
       <c r="K11">
-        <v>1.014535040115453</v>
+        <v>1.037217095581108</v>
       </c>
       <c r="L11">
-        <v>1.007966249247123</v>
+        <v>1.029281845937305</v>
       </c>
       <c r="M11">
-        <v>1.019099939629871</v>
+        <v>1.045595450451307</v>
       </c>
       <c r="N11">
-        <v>1.008231408851803</v>
+        <v>1.014635198204602</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9814179343893676</v>
+        <v>1.024977120335434</v>
       </c>
       <c r="D12">
-        <v>0.9986680385004716</v>
+        <v>1.033452424653231</v>
       </c>
       <c r="E12">
-        <v>0.9920285459687691</v>
+        <v>1.025497473118113</v>
       </c>
       <c r="F12">
-        <v>1.00319634400705</v>
+        <v>1.041836582780851</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043609541475755</v>
+        <v>1.033607878755033</v>
       </c>
       <c r="J12">
-        <v>1.012030085607077</v>
+        <v>1.03170443966815</v>
       </c>
       <c r="K12">
-        <v>1.013820801357439</v>
+        <v>1.037074099832308</v>
       </c>
       <c r="L12">
-        <v>1.007310076713268</v>
+        <v>1.029149457055865</v>
       </c>
       <c r="M12">
-        <v>1.018262562249407</v>
+        <v>1.045426868467353</v>
       </c>
       <c r="N12">
-        <v>1.008019210769392</v>
+        <v>1.014593998962467</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9816619999537669</v>
+        <v>1.025022617381398</v>
       </c>
       <c r="D13">
-        <v>0.9988695903385736</v>
+        <v>1.033492918229666</v>
       </c>
       <c r="E13">
-        <v>0.9922178694144693</v>
+        <v>1.025535771327241</v>
       </c>
       <c r="F13">
-        <v>1.003424536829561</v>
+        <v>1.04188249242783</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043678105714386</v>
+        <v>1.033615392002981</v>
       </c>
       <c r="J13">
-        <v>1.012167713685825</v>
+        <v>1.031731137998939</v>
       </c>
       <c r="K13">
-        <v>1.013974372479408</v>
+        <v>1.037104773622101</v>
       </c>
       <c r="L13">
-        <v>1.007451156261839</v>
+        <v>1.029177854937899</v>
       </c>
       <c r="M13">
-        <v>1.018442606417838</v>
+        <v>1.045463030268023</v>
       </c>
       <c r="N13">
-        <v>1.008064841955273</v>
+        <v>1.014602837400653</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9824594772929769</v>
+        <v>1.025171701552084</v>
       </c>
       <c r="D14">
-        <v>0.9995283680718002</v>
+        <v>1.033625617041317</v>
       </c>
       <c r="E14">
-        <v>0.9928367278819846</v>
+        <v>1.02566127982938</v>
       </c>
       <c r="F14">
-        <v>1.004170350153353</v>
+        <v>1.042032937863597</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043901688863932</v>
+        <v>1.033639950003587</v>
       </c>
       <c r="J14">
-        <v>1.012617343270901</v>
+        <v>1.031818606228373</v>
       </c>
       <c r="K14">
-        <v>1.014476164709757</v>
+        <v>1.037205275832803</v>
       </c>
       <c r="L14">
-        <v>1.007912157359358</v>
+        <v>1.029270902640898</v>
       </c>
       <c r="M14">
-        <v>1.019030912233712</v>
+        <v>1.045581515591319</v>
       </c>
       <c r="N14">
-        <v>1.008213919717948</v>
+        <v>1.014631793141279</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9829491406717947</v>
+        <v>1.025263564645591</v>
       </c>
       <c r="D15">
-        <v>0.9999330294335295</v>
+        <v>1.033707391365925</v>
       </c>
       <c r="E15">
-        <v>0.9932169061604111</v>
+        <v>1.025738626243741</v>
       </c>
       <c r="F15">
-        <v>1.004628442782821</v>
+        <v>1.042125646824893</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044038628115736</v>
+        <v>1.033655035277872</v>
       </c>
       <c r="J15">
-        <v>1.012893371243181</v>
+        <v>1.031872489977173</v>
       </c>
       <c r="K15">
-        <v>1.014784274201839</v>
+        <v>1.037267196440818</v>
       </c>
       <c r="L15">
-        <v>1.008195239402092</v>
+        <v>1.029328232327732</v>
       </c>
       <c r="M15">
-        <v>1.019392152713192</v>
+        <v>1.045654517132117</v>
       </c>
       <c r="N15">
-        <v>1.008305439506231</v>
+        <v>1.014649630614739</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9857738806261896</v>
+        <v>1.025798359694837</v>
       </c>
       <c r="D16">
-        <v>1.002269825632597</v>
+        <v>1.034183568898341</v>
       </c>
       <c r="E16">
-        <v>0.9954128870726449</v>
+        <v>1.026189066193967</v>
       </c>
       <c r="F16">
-        <v>1.007273322292716</v>
+        <v>1.04266547403705</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044823322307511</v>
+        <v>1.033742139359299</v>
       </c>
       <c r="J16">
-        <v>1.014484888644841</v>
+        <v>1.032185988800337</v>
       </c>
       <c r="K16">
-        <v>1.016561660625179</v>
+        <v>1.037627567715124</v>
       </c>
       <c r="L16">
-        <v>1.009828537227851</v>
+        <v>1.029661913759686</v>
       </c>
       <c r="M16">
-        <v>1.021476189170238</v>
+        <v>1.046079398479739</v>
       </c>
       <c r="N16">
-        <v>1.008833133930736</v>
+        <v>1.014753404543944</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9875239713478402</v>
+        <v>1.02613392009924</v>
       </c>
       <c r="D17">
-        <v>1.003719678602819</v>
+        <v>1.034482450979839</v>
       </c>
       <c r="E17">
-        <v>0.9967758634273182</v>
+        <v>1.026471834398765</v>
       </c>
       <c r="F17">
-        <v>1.008913924237507</v>
+        <v>1.043004286539321</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045304803543067</v>
+        <v>1.03379616135169</v>
       </c>
       <c r="J17">
-        <v>1.015470173749146</v>
+        <v>1.032382524686278</v>
       </c>
       <c r="K17">
-        <v>1.017662801204687</v>
+        <v>1.037853588529709</v>
       </c>
       <c r="L17">
-        <v>1.010840660586772</v>
+        <v>1.029871220362048</v>
       </c>
       <c r="M17">
-        <v>1.022767444616055</v>
+        <v>1.046345897149979</v>
       </c>
       <c r="N17">
-        <v>1.009159830171112</v>
+        <v>1.014818456666856</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9885371080772146</v>
+        <v>1.026329681516386</v>
       </c>
       <c r="D18">
-        <v>1.004559734859275</v>
+        <v>1.034656851213718</v>
       </c>
       <c r="E18">
-        <v>0.9975657571472898</v>
+        <v>1.026636846721317</v>
       </c>
       <c r="F18">
-        <v>1.009864361730377</v>
+        <v>1.043201979163202</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04558182870429</v>
+        <v>1.033827449163209</v>
       </c>
       <c r="J18">
-        <v>1.01604027543037</v>
+        <v>1.032497119388676</v>
       </c>
       <c r="K18">
-        <v>1.0183002227896</v>
+        <v>1.037985411186934</v>
       </c>
       <c r="L18">
-        <v>1.011426641501755</v>
+        <v>1.029993303876138</v>
       </c>
       <c r="M18">
-        <v>1.023514968439076</v>
+        <v>1.046501334256054</v>
       </c>
       <c r="N18">
-        <v>1.00934886426414</v>
+        <v>1.01485638500529</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9888812797443128</v>
+        <v>1.026396436944381</v>
       </c>
       <c r="D19">
-        <v>1.004845231567339</v>
+        <v>1.034716328561155</v>
       </c>
       <c r="E19">
-        <v>0.9978342352659435</v>
+        <v>1.026693124906436</v>
       </c>
       <c r="F19">
-        <v>1.010187348528907</v>
+        <v>1.043269398891151</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045675645122557</v>
+        <v>1.033838079766376</v>
       </c>
       <c r="J19">
-        <v>1.016233894431659</v>
+        <v>1.032536186168481</v>
       </c>
       <c r="K19">
-        <v>1.018516753379922</v>
+        <v>1.038030357320495</v>
       </c>
       <c r="L19">
-        <v>1.011625712855579</v>
+        <v>1.030034930907235</v>
       </c>
       <c r="M19">
-        <v>1.023768908977121</v>
+        <v>1.046554333046655</v>
       </c>
       <c r="N19">
-        <v>1.009413064736672</v>
+        <v>1.014869314952244</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9873369999031589</v>
+        <v>1.026097914042863</v>
       </c>
       <c r="D20">
-        <v>1.003564707169557</v>
+        <v>1.034450376779874</v>
       </c>
       <c r="E20">
-        <v>0.9966301598878561</v>
+        <v>1.026441487923372</v>
       </c>
       <c r="F20">
-        <v>1.008738578710475</v>
+        <v>1.042967928011692</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045253540941989</v>
+        <v>1.033790388290885</v>
       </c>
       <c r="J20">
-        <v>1.015364939786006</v>
+        <v>1.032361442514242</v>
       </c>
       <c r="K20">
-        <v>1.01754516377504</v>
+        <v>1.037829339810692</v>
       </c>
       <c r="L20">
-        <v>1.010732523816845</v>
+        <v>1.029848763888608</v>
       </c>
       <c r="M20">
-        <v>1.022629491626119</v>
+        <v>1.046317305083501</v>
       </c>
       <c r="N20">
-        <v>1.00912493691877</v>
+        <v>1.014811478786101</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9822249930452986</v>
+        <v>1.025127798432221</v>
       </c>
       <c r="D21">
-        <v>0.9993346321710552</v>
+        <v>1.033586537585917</v>
       </c>
       <c r="E21">
-        <v>0.9926547236998994</v>
+        <v>1.025624317266628</v>
       </c>
       <c r="F21">
-        <v>1.003951025039756</v>
+        <v>1.041988632395428</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04383601987274</v>
+        <v>1.033632727807634</v>
       </c>
       <c r="J21">
-        <v>1.012485148233674</v>
+        <v>1.031792850744703</v>
       </c>
       <c r="K21">
-        <v>1.01432862112396</v>
+        <v>1.037175680876073</v>
       </c>
       <c r="L21">
-        <v>1.007776603742732</v>
+        <v>1.029243502424552</v>
       </c>
       <c r="M21">
-        <v>1.018857928678196</v>
+        <v>1.04554662485921</v>
       </c>
       <c r="N21">
-        <v>1.008170089373719</v>
+        <v>1.014623267045305</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9789376282769</v>
+        <v>1.024518170857396</v>
       </c>
       <c r="D22">
-        <v>0.9966215026207118</v>
+        <v>1.033044026508049</v>
       </c>
       <c r="E22">
-        <v>0.9901065754425402</v>
+        <v>1.025111247964539</v>
       </c>
       <c r="F22">
-        <v>1.000878964031187</v>
+        <v>1.041373544750204</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042909204380801</v>
+        <v>1.033531603461001</v>
       </c>
       <c r="J22">
-        <v>1.010630936592745</v>
+        <v>1.031434990508731</v>
       </c>
       <c r="K22">
-        <v>1.012260186630185</v>
+        <v>1.03676460583157</v>
       </c>
       <c r="L22">
-        <v>1.005876604189287</v>
+        <v>1.028862946219877</v>
       </c>
       <c r="M22">
-        <v>1.016433028559262</v>
+        <v>1.045062014921027</v>
       </c>
       <c r="N22">
-        <v>1.007555326654413</v>
+        <v>1.014504794535626</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9806874778061154</v>
+        <v>1.024841314909172</v>
       </c>
       <c r="D23">
-        <v>0.9980650020891115</v>
+        <v>1.033331562651109</v>
       </c>
       <c r="E23">
-        <v>0.9914621387856841</v>
+        <v>1.025383167044256</v>
       </c>
       <c r="F23">
-        <v>1.002513563388009</v>
+        <v>1.041699553609821</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04340395817241</v>
+        <v>1.033585400398631</v>
       </c>
       <c r="J23">
-        <v>1.011618127408437</v>
+        <v>1.031624733082679</v>
       </c>
       <c r="K23">
-        <v>1.013361186566261</v>
+        <v>1.036982532914444</v>
       </c>
       <c r="L23">
-        <v>1.006887868557295</v>
+        <v>1.029064686232149</v>
       </c>
       <c r="M23">
-        <v>1.017723728827812</v>
+        <v>1.045318920285263</v>
       </c>
       <c r="N23">
-        <v>1.007882625242752</v>
+        <v>1.014567611830867</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9874215078835762</v>
+        <v>1.026114183522767</v>
       </c>
       <c r="D24">
-        <v>1.003634749422447</v>
+        <v>1.034464869522249</v>
       </c>
       <c r="E24">
-        <v>0.9966960128018458</v>
+        <v>1.026455199947275</v>
       </c>
       <c r="F24">
-        <v>1.00881782985177</v>
+        <v>1.042984356652221</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045276716080884</v>
+        <v>1.033792997575523</v>
       </c>
       <c r="J24">
-        <v>1.015412504672582</v>
+        <v>1.032370968768225</v>
       </c>
       <c r="K24">
-        <v>1.017598334045467</v>
+        <v>1.037840296798601</v>
       </c>
       <c r="L24">
-        <v>1.010781399662339</v>
+        <v>1.029858911007066</v>
       </c>
       <c r="M24">
-        <v>1.022691844056497</v>
+        <v>1.046330224629593</v>
       </c>
       <c r="N24">
-        <v>1.009140708374676</v>
+        <v>1.014814631837884</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9949372619752956</v>
+        <v>1.02759263306032</v>
       </c>
       <c r="D25">
-        <v>1.009879001861841</v>
+        <v>1.035782645604486</v>
       </c>
       <c r="E25">
-        <v>1.002570434286147</v>
+        <v>1.027702304119397</v>
       </c>
       <c r="F25">
-        <v>1.015880171165936</v>
+        <v>1.044478000063266</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047300823487638</v>
+        <v>1.034025178949062</v>
       </c>
       <c r="J25">
-        <v>1.019636217006182</v>
+        <v>1.033235306930867</v>
       </c>
       <c r="K25">
-        <v>1.022325870588448</v>
+        <v>1.038835229429024</v>
       </c>
       <c r="L25">
-        <v>1.015128978193391</v>
+        <v>1.030780501530517</v>
       </c>
       <c r="M25">
-        <v>1.028236869964617</v>
+        <v>1.047503504299673</v>
       </c>
       <c r="N25">
-        <v>1.010541231758666</v>
+        <v>1.015100676576928</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_213/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_213/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028772881466093</v>
+        <v>1.000711186129308</v>
       </c>
       <c r="D2">
-        <v>1.036835762705145</v>
+        <v>1.014696668511581</v>
       </c>
       <c r="E2">
-        <v>1.028699403059596</v>
+        <v>1.007107880602256</v>
       </c>
       <c r="F2">
-        <v>1.045671437307821</v>
+        <v>1.021325103118607</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034203299525416</v>
+        <v>1.048800722910316</v>
       </c>
       <c r="J2">
-        <v>1.033923342961585</v>
+        <v>1.022870646529091</v>
       </c>
       <c r="K2">
-        <v>1.039628367451097</v>
+        <v>1.025954983105184</v>
       </c>
       <c r="L2">
-        <v>1.03151546011113</v>
+        <v>1.018469071630532</v>
       </c>
       <c r="M2">
-        <v>1.048439022621327</v>
+        <v>1.032495129475517</v>
       </c>
       <c r="N2">
-        <v>1.015328318491058</v>
+        <v>1.011613731067264</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029630425090795</v>
+        <v>1.004784799029908</v>
       </c>
       <c r="D3">
-        <v>1.037601584458905</v>
+        <v>1.018106706010508</v>
       </c>
       <c r="E3">
-        <v>1.029424753498311</v>
+        <v>1.010322416314434</v>
       </c>
       <c r="F3">
-        <v>1.046539170838426</v>
+        <v>1.025177042875233</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034328516200894</v>
+        <v>1.049825948110812</v>
       </c>
       <c r="J3">
-        <v>1.034422108262103</v>
+        <v>1.025145870068853</v>
       </c>
       <c r="K3">
-        <v>1.040203989008678</v>
+        <v>1.028513033722617</v>
       </c>
       <c r="L3">
-        <v>1.032049023799471</v>
+        <v>1.020824901857573</v>
       </c>
       <c r="M3">
-        <v>1.049118097408869</v>
+        <v>1.035497603032845</v>
       </c>
       <c r="N3">
-        <v>1.015493305005049</v>
+        <v>1.012368143439504</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030185572535411</v>
+        <v>1.007368546596317</v>
       </c>
       <c r="D4">
-        <v>1.038097651324499</v>
+        <v>1.020274451168051</v>
       </c>
       <c r="E4">
-        <v>1.029894726611969</v>
+        <v>1.012367162367381</v>
       </c>
       <c r="F4">
-        <v>1.047101193420632</v>
+        <v>1.027624792619739</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034407630309353</v>
+        <v>1.050460583664308</v>
       </c>
       <c r="J4">
-        <v>1.034744460519251</v>
+        <v>1.026585624036525</v>
       </c>
       <c r="K4">
-        <v>1.040576322825897</v>
+        <v>1.030134187789388</v>
       </c>
       <c r="L4">
-        <v>1.032394229605615</v>
+        <v>1.022318583348773</v>
       </c>
       <c r="M4">
-        <v>1.049557404743089</v>
+        <v>1.03740086225544</v>
       </c>
       <c r="N4">
-        <v>1.015599920067272</v>
+        <v>1.012845511605228</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030419017112085</v>
+        <v>1.008442661597709</v>
       </c>
       <c r="D5">
-        <v>1.038306322718284</v>
+        <v>1.021176761497923</v>
       </c>
       <c r="E5">
-        <v>1.03009245069078</v>
+        <v>1.013218577325363</v>
       </c>
       <c r="F5">
-        <v>1.047337595365715</v>
+        <v>1.028643442585552</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034440431855096</v>
+        <v>1.050720609790127</v>
       </c>
       <c r="J5">
-        <v>1.034879884618082</v>
+        <v>1.027183324083328</v>
       </c>
       <c r="K5">
-        <v>1.040732818988229</v>
+        <v>1.030807781329812</v>
       </c>
       <c r="L5">
-        <v>1.03253934186963</v>
+        <v>1.022939374389303</v>
       </c>
       <c r="M5">
-        <v>1.049742064110021</v>
+        <v>1.038191781883249</v>
       </c>
       <c r="N5">
-        <v>1.015644706538097</v>
+        <v>1.013043679819485</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030458216993015</v>
+        <v>1.008622312210716</v>
       </c>
       <c r="D6">
-        <v>1.038341366835563</v>
+        <v>1.021327742767458</v>
       </c>
       <c r="E6">
-        <v>1.030125658025586</v>
+        <v>1.013361060025779</v>
       </c>
       <c r="F6">
-        <v>1.047377295723976</v>
+        <v>1.028813878521707</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034445912493895</v>
+        <v>1.050763875116325</v>
       </c>
       <c r="J6">
-        <v>1.0349026174416</v>
+        <v>1.027283242147413</v>
       </c>
       <c r="K6">
-        <v>1.04075909340759</v>
+        <v>1.030920421224049</v>
       </c>
       <c r="L6">
-        <v>1.032563706099323</v>
+        <v>1.023043194050248</v>
       </c>
       <c r="M6">
-        <v>1.049773067691308</v>
+        <v>1.038324047881709</v>
       </c>
       <c r="N6">
-        <v>1.015652224347393</v>
+        <v>1.013076807351441</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03018869159708</v>
+        <v>1.007382945980918</v>
       </c>
       <c r="D7">
-        <v>1.038100439113386</v>
+        <v>1.020286542930616</v>
       </c>
       <c r="E7">
-        <v>1.02989736803387</v>
+        <v>1.01237857089985</v>
       </c>
       <c r="F7">
-        <v>1.047104351735753</v>
+        <v>1.027638444257863</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034408070406076</v>
+        <v>1.050464084624808</v>
       </c>
       <c r="J7">
-        <v>1.034746270428905</v>
+        <v>1.026593640029376</v>
       </c>
       <c r="K7">
-        <v>1.040578414066632</v>
+        <v>1.030143219294139</v>
       </c>
       <c r="L7">
-        <v>1.032396168652649</v>
+        <v>1.022326906239617</v>
       </c>
       <c r="M7">
-        <v>1.049559872272588</v>
+        <v>1.037411466422137</v>
       </c>
       <c r="N7">
-        <v>1.015600518642419</v>
+        <v>1.012848169345882</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029062637739656</v>
+        <v>1.002098923620931</v>
       </c>
       <c r="D8">
-        <v>1.037094465169329</v>
+        <v>1.015857304352961</v>
       </c>
       <c r="E8">
-        <v>1.028944408623588</v>
+        <v>1.008201704606988</v>
       </c>
       <c r="F8">
-        <v>1.045964578792618</v>
+        <v>1.022636339756234</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034246011913771</v>
+        <v>1.049153223687286</v>
       </c>
       <c r="J8">
-        <v>1.0340919814081</v>
+        <v>1.023646415270959</v>
       </c>
       <c r="K8">
-        <v>1.039822927896171</v>
+        <v>1.02682667847215</v>
       </c>
       <c r="L8">
-        <v>1.0316957890878</v>
+        <v>1.019271712981041</v>
       </c>
       <c r="M8">
-        <v>1.048668538744202</v>
+        <v>1.033518174706415</v>
       </c>
       <c r="N8">
-        <v>1.015384105640024</v>
+        <v>1.011870961966291</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027080439735431</v>
+        <v>0.9923697684508055</v>
       </c>
       <c r="D9">
-        <v>1.035325939233844</v>
+        <v>1.007742510765758</v>
       </c>
       <c r="E9">
-        <v>1.027270019348355</v>
+        <v>1.000559659362247</v>
       </c>
       <c r="F9">
-        <v>1.04396037811709</v>
+        <v>1.013464410986093</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033945859395591</v>
+        <v>1.046617902521753</v>
       </c>
       <c r="J9">
-        <v>1.032936169325651</v>
+        <v>1.01819487727634</v>
       </c>
       <c r="K9">
-        <v>1.038490717453439</v>
+        <v>1.020711207807944</v>
       </c>
       <c r="L9">
-        <v>1.030461340934706</v>
+        <v>1.013643663004996</v>
       </c>
       <c r="M9">
-        <v>1.047097204926372</v>
+        <v>1.026342750369172</v>
       </c>
       <c r="N9">
-        <v>1.015001688545435</v>
+        <v>1.010063298401965</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025760442870182</v>
+        <v>0.9855750531095165</v>
       </c>
       <c r="D10">
-        <v>1.034149801503407</v>
+        <v>1.002105208618551</v>
       </c>
       <c r="E10">
-        <v>1.02615712131582</v>
+        <v>0.9952581580067283</v>
       </c>
       <c r="F10">
-        <v>1.042627194345744</v>
+        <v>1.007087028187747</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033736004294918</v>
+        <v>1.044768390237872</v>
       </c>
       <c r="J10">
-        <v>1.032163772787347</v>
+        <v>1.014372912745249</v>
       </c>
       <c r="K10">
-        <v>1.037602023669715</v>
+        <v>1.016436556621088</v>
       </c>
       <c r="L10">
-        <v>1.029638259929203</v>
+        <v>1.009713558944874</v>
       </c>
       <c r="M10">
-        <v>1.046049280647255</v>
+        <v>1.02132949235961</v>
       </c>
       <c r="N10">
-        <v>1.014746050945808</v>
+        <v>1.008796005857679</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025189236264238</v>
+        <v>0.9825530451771696</v>
       </c>
       <c r="D11">
-        <v>1.033641225573495</v>
+        <v>0.9996056837341978</v>
       </c>
       <c r="E11">
-        <v>1.02567604301224</v>
+        <v>0.992909363517405</v>
       </c>
       <c r="F11">
-        <v>1.042050633616547</v>
+        <v>1.004257876374294</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03364283223122</v>
+        <v>1.043927876433362</v>
       </c>
       <c r="J11">
-        <v>1.031828892238135</v>
+        <v>1.012670091462482</v>
       </c>
       <c r="K11">
-        <v>1.037217095581108</v>
+        <v>1.014535040115453</v>
       </c>
       <c r="L11">
-        <v>1.029281845937305</v>
+        <v>1.007966249247122</v>
       </c>
       <c r="M11">
-        <v>1.045595450451307</v>
+        <v>1.019099939629871</v>
       </c>
       <c r="N11">
-        <v>1.014635198204602</v>
+        <v>1.008231408851803</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024977120335434</v>
+        <v>0.9814179343893673</v>
       </c>
       <c r="D12">
-        <v>1.033452424653231</v>
+        <v>0.9986680385004715</v>
       </c>
       <c r="E12">
-        <v>1.025497473118113</v>
+        <v>0.9920285459687691</v>
       </c>
       <c r="F12">
-        <v>1.041836582780851</v>
+        <v>1.00319634400705</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033607878755033</v>
+        <v>1.043609541475755</v>
       </c>
       <c r="J12">
-        <v>1.03170443966815</v>
+        <v>1.012030085607077</v>
       </c>
       <c r="K12">
-        <v>1.037074099832308</v>
+        <v>1.013820801357439</v>
       </c>
       <c r="L12">
-        <v>1.029149457055865</v>
+        <v>1.007310076713268</v>
       </c>
       <c r="M12">
-        <v>1.045426868467353</v>
+        <v>1.018262562249407</v>
       </c>
       <c r="N12">
-        <v>1.014593998962467</v>
+        <v>1.008019210769392</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025022617381398</v>
+        <v>0.9816619999537665</v>
       </c>
       <c r="D13">
-        <v>1.033492918229666</v>
+        <v>0.9988695903385734</v>
       </c>
       <c r="E13">
-        <v>1.025535771327241</v>
+        <v>0.9922178694144692</v>
       </c>
       <c r="F13">
-        <v>1.04188249242783</v>
+        <v>1.003424536829561</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033615392002981</v>
+        <v>1.043678105714386</v>
       </c>
       <c r="J13">
-        <v>1.031731137998939</v>
+        <v>1.012167713685825</v>
       </c>
       <c r="K13">
-        <v>1.037104773622101</v>
+        <v>1.013974372479408</v>
       </c>
       <c r="L13">
-        <v>1.029177854937899</v>
+        <v>1.007451156261839</v>
       </c>
       <c r="M13">
-        <v>1.045463030268023</v>
+        <v>1.018442606417838</v>
       </c>
       <c r="N13">
-        <v>1.014602837400653</v>
+        <v>1.008064841955273</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025171701552084</v>
+        <v>0.9824594772929763</v>
       </c>
       <c r="D14">
-        <v>1.033625617041317</v>
+        <v>0.9995283680717998</v>
       </c>
       <c r="E14">
-        <v>1.02566127982938</v>
+        <v>0.9928367278819841</v>
       </c>
       <c r="F14">
-        <v>1.042032937863597</v>
+        <v>1.004170350153353</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033639950003587</v>
+        <v>1.043901688863931</v>
       </c>
       <c r="J14">
-        <v>1.031818606228373</v>
+        <v>1.012617343270901</v>
       </c>
       <c r="K14">
-        <v>1.037205275832803</v>
+        <v>1.014476164709757</v>
       </c>
       <c r="L14">
-        <v>1.029270902640898</v>
+        <v>1.007912157359358</v>
       </c>
       <c r="M14">
-        <v>1.045581515591319</v>
+        <v>1.019030912233712</v>
       </c>
       <c r="N14">
-        <v>1.014631793141279</v>
+        <v>1.008213919717947</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025263564645591</v>
+        <v>0.9829491406717947</v>
       </c>
       <c r="D15">
-        <v>1.033707391365925</v>
+        <v>0.9999330294335291</v>
       </c>
       <c r="E15">
-        <v>1.025738626243741</v>
+        <v>0.9932169061604109</v>
       </c>
       <c r="F15">
-        <v>1.042125646824893</v>
+        <v>1.004628442782821</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033655035277872</v>
+        <v>1.044038628115736</v>
       </c>
       <c r="J15">
-        <v>1.031872489977173</v>
+        <v>1.012893371243181</v>
       </c>
       <c r="K15">
-        <v>1.037267196440818</v>
+        <v>1.014784274201839</v>
       </c>
       <c r="L15">
-        <v>1.029328232327732</v>
+        <v>1.008195239402091</v>
       </c>
       <c r="M15">
-        <v>1.045654517132117</v>
+        <v>1.019392152713192</v>
       </c>
       <c r="N15">
-        <v>1.014649630614739</v>
+        <v>1.00830543950623</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025798359694837</v>
+        <v>0.9857738806261898</v>
       </c>
       <c r="D16">
-        <v>1.034183568898341</v>
+        <v>1.002269825632597</v>
       </c>
       <c r="E16">
-        <v>1.026189066193967</v>
+        <v>0.9954128870726451</v>
       </c>
       <c r="F16">
-        <v>1.04266547403705</v>
+        <v>1.007273322292716</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033742139359299</v>
+        <v>1.044823322307511</v>
       </c>
       <c r="J16">
-        <v>1.032185988800337</v>
+        <v>1.014484888644842</v>
       </c>
       <c r="K16">
-        <v>1.037627567715124</v>
+        <v>1.016561660625179</v>
       </c>
       <c r="L16">
-        <v>1.029661913759686</v>
+        <v>1.009828537227851</v>
       </c>
       <c r="M16">
-        <v>1.046079398479739</v>
+        <v>1.021476189170238</v>
       </c>
       <c r="N16">
-        <v>1.014753404543944</v>
+        <v>1.008833133930736</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02613392009924</v>
+        <v>0.9875239713478395</v>
       </c>
       <c r="D17">
-        <v>1.034482450979839</v>
+        <v>1.003719678602819</v>
       </c>
       <c r="E17">
-        <v>1.026471834398765</v>
+        <v>0.9967758634273177</v>
       </c>
       <c r="F17">
-        <v>1.043004286539321</v>
+        <v>1.008913924237507</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03379616135169</v>
+        <v>1.045304803543067</v>
       </c>
       <c r="J17">
-        <v>1.032382524686278</v>
+        <v>1.015470173749146</v>
       </c>
       <c r="K17">
-        <v>1.037853588529709</v>
+        <v>1.017662801204687</v>
       </c>
       <c r="L17">
-        <v>1.029871220362048</v>
+        <v>1.010840660586772</v>
       </c>
       <c r="M17">
-        <v>1.046345897149979</v>
+        <v>1.022767444616055</v>
       </c>
       <c r="N17">
-        <v>1.014818456666856</v>
+        <v>1.009159830171112</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026329681516386</v>
+        <v>0.9885371080772141</v>
       </c>
       <c r="D18">
-        <v>1.034656851213718</v>
+        <v>1.004559734859275</v>
       </c>
       <c r="E18">
-        <v>1.026636846721317</v>
+        <v>0.9975657571472898</v>
       </c>
       <c r="F18">
-        <v>1.043201979163202</v>
+        <v>1.009864361730377</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033827449163209</v>
+        <v>1.04558182870429</v>
       </c>
       <c r="J18">
-        <v>1.032497119388676</v>
+        <v>1.016040275430369</v>
       </c>
       <c r="K18">
-        <v>1.037985411186934</v>
+        <v>1.018300222789599</v>
       </c>
       <c r="L18">
-        <v>1.029993303876138</v>
+        <v>1.011426641501755</v>
       </c>
       <c r="M18">
-        <v>1.046501334256054</v>
+        <v>1.023514968439075</v>
       </c>
       <c r="N18">
-        <v>1.01485638500529</v>
+        <v>1.00934886426414</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026396436944381</v>
+        <v>0.9888812797443123</v>
       </c>
       <c r="D19">
-        <v>1.034716328561155</v>
+        <v>1.004845231567338</v>
       </c>
       <c r="E19">
-        <v>1.026693124906436</v>
+        <v>0.9978342352659432</v>
       </c>
       <c r="F19">
-        <v>1.043269398891151</v>
+        <v>1.010187348528906</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033838079766376</v>
+        <v>1.045675645122556</v>
       </c>
       <c r="J19">
-        <v>1.032536186168481</v>
+        <v>1.016233894431658</v>
       </c>
       <c r="K19">
-        <v>1.038030357320495</v>
+        <v>1.018516753379921</v>
       </c>
       <c r="L19">
-        <v>1.030034930907235</v>
+        <v>1.011625712855579</v>
       </c>
       <c r="M19">
-        <v>1.046554333046655</v>
+        <v>1.023768908977121</v>
       </c>
       <c r="N19">
-        <v>1.014869314952244</v>
+        <v>1.009413064736672</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026097914042863</v>
+        <v>0.9873369999031599</v>
       </c>
       <c r="D20">
-        <v>1.034450376779874</v>
+        <v>1.003564707169558</v>
       </c>
       <c r="E20">
-        <v>1.026441487923372</v>
+        <v>0.9966301598878566</v>
       </c>
       <c r="F20">
-        <v>1.042967928011692</v>
+        <v>1.008738578710476</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033790388290885</v>
+        <v>1.04525354094199</v>
       </c>
       <c r="J20">
-        <v>1.032361442514242</v>
+        <v>1.015364939786007</v>
       </c>
       <c r="K20">
-        <v>1.037829339810692</v>
+        <v>1.017545163775041</v>
       </c>
       <c r="L20">
-        <v>1.029848763888608</v>
+        <v>1.010732523816846</v>
       </c>
       <c r="M20">
-        <v>1.046317305083501</v>
+        <v>1.022629491626121</v>
       </c>
       <c r="N20">
-        <v>1.014811478786101</v>
+        <v>1.00912493691877</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025127798432221</v>
+        <v>0.9822249930452981</v>
       </c>
       <c r="D21">
-        <v>1.033586537585917</v>
+        <v>0.9993346321710551</v>
       </c>
       <c r="E21">
-        <v>1.025624317266628</v>
+        <v>0.9926547236998987</v>
       </c>
       <c r="F21">
-        <v>1.041988632395428</v>
+        <v>1.003951025039756</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033632727807634</v>
+        <v>1.04383601987274</v>
       </c>
       <c r="J21">
-        <v>1.031792850744703</v>
+        <v>1.012485148233673</v>
       </c>
       <c r="K21">
-        <v>1.037175680876073</v>
+        <v>1.01432862112396</v>
       </c>
       <c r="L21">
-        <v>1.029243502424552</v>
+        <v>1.007776603742731</v>
       </c>
       <c r="M21">
-        <v>1.04554662485921</v>
+        <v>1.018857928678195</v>
       </c>
       <c r="N21">
-        <v>1.014623267045305</v>
+        <v>1.008170089373719</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024518170857396</v>
+        <v>0.9789376282769005</v>
       </c>
       <c r="D22">
-        <v>1.033044026508049</v>
+        <v>0.996621502620712</v>
       </c>
       <c r="E22">
-        <v>1.025111247964539</v>
+        <v>0.9901065754425405</v>
       </c>
       <c r="F22">
-        <v>1.041373544750204</v>
+        <v>1.000878964031187</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033531603461001</v>
+        <v>1.042909204380801</v>
       </c>
       <c r="J22">
-        <v>1.031434990508731</v>
+        <v>1.010630936592746</v>
       </c>
       <c r="K22">
-        <v>1.03676460583157</v>
+        <v>1.012260186630185</v>
       </c>
       <c r="L22">
-        <v>1.028862946219877</v>
+        <v>1.005876604189288</v>
       </c>
       <c r="M22">
-        <v>1.045062014921027</v>
+        <v>1.016433028559262</v>
       </c>
       <c r="N22">
-        <v>1.014504794535626</v>
+        <v>1.007555326654413</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024841314909172</v>
+        <v>0.9806874778061158</v>
       </c>
       <c r="D23">
-        <v>1.033331562651109</v>
+        <v>0.9980650020891123</v>
       </c>
       <c r="E23">
-        <v>1.025383167044256</v>
+        <v>0.9914621387856847</v>
       </c>
       <c r="F23">
-        <v>1.041699553609821</v>
+        <v>1.002513563388009</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033585400398631</v>
+        <v>1.043403958172411</v>
       </c>
       <c r="J23">
-        <v>1.031624733082679</v>
+        <v>1.011618127408437</v>
       </c>
       <c r="K23">
-        <v>1.036982532914444</v>
+        <v>1.013361186566261</v>
       </c>
       <c r="L23">
-        <v>1.029064686232149</v>
+        <v>1.006887868557296</v>
       </c>
       <c r="M23">
-        <v>1.045318920285263</v>
+        <v>1.017723728827813</v>
       </c>
       <c r="N23">
-        <v>1.014567611830867</v>
+        <v>1.007882625242753</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026114183522767</v>
+        <v>0.9874215078835756</v>
       </c>
       <c r="D24">
-        <v>1.034464869522249</v>
+        <v>1.003634749422447</v>
       </c>
       <c r="E24">
-        <v>1.026455199947275</v>
+        <v>0.9966960128018452</v>
       </c>
       <c r="F24">
-        <v>1.042984356652221</v>
+        <v>1.00881782985177</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033792997575523</v>
+        <v>1.045276716080884</v>
       </c>
       <c r="J24">
-        <v>1.032370968768225</v>
+        <v>1.015412504672582</v>
       </c>
       <c r="K24">
-        <v>1.037840296798601</v>
+        <v>1.017598334045467</v>
       </c>
       <c r="L24">
-        <v>1.029858911007066</v>
+        <v>1.010781399662338</v>
       </c>
       <c r="M24">
-        <v>1.046330224629593</v>
+        <v>1.022691844056497</v>
       </c>
       <c r="N24">
-        <v>1.014814631837884</v>
+        <v>1.009140708374676</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02759263306032</v>
+        <v>0.9949372619752955</v>
       </c>
       <c r="D25">
-        <v>1.035782645604486</v>
+        <v>1.00987900186184</v>
       </c>
       <c r="E25">
-        <v>1.027702304119397</v>
+        <v>1.002570434286147</v>
       </c>
       <c r="F25">
-        <v>1.044478000063266</v>
+        <v>1.015880171165936</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034025178949062</v>
+        <v>1.047300823487638</v>
       </c>
       <c r="J25">
-        <v>1.033235306930867</v>
+        <v>1.019636217006182</v>
       </c>
       <c r="K25">
-        <v>1.038835229429024</v>
+        <v>1.022325870588447</v>
       </c>
       <c r="L25">
-        <v>1.030780501530517</v>
+        <v>1.015128978193391</v>
       </c>
       <c r="M25">
-        <v>1.047503504299673</v>
+        <v>1.028236869964617</v>
       </c>
       <c r="N25">
-        <v>1.015100676576928</v>
+        <v>1.010541231758666</v>
       </c>
     </row>
   </sheetData>
